--- a/label_color.xlsx
+++ b/label_color.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="69">
   <si>
     <t>No</t>
   </si>
@@ -69,7 +69,7 @@
     <t>(217, 240, 17)</t>
   </si>
   <si>
-    <t>terran</t>
+    <t>terrain</t>
   </si>
   <si>
     <t>#ba1841</t>
@@ -220,6 +220,9 @@
   </si>
   <si>
     <t>(45, 149, 238)</t>
+  </si>
+  <si>
+    <t>﻿</t>
   </si>
 </sst>
 </file>
@@ -228,17 +231,23 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="20">
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF24292E"/>
+      <name val="-apple-system"/>
+      <charset val="134"/>
     </font>
     <font>
       <u/>
@@ -249,6 +258,105 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
@@ -257,47 +365,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -312,74 +388,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -520,13 +529,127 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -538,19 +661,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -562,145 +679,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -729,17 +738,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -748,7 +751,22 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -764,15 +782,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -794,6 +803,15 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -803,26 +821,17 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -831,157 +840,160 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="46" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="51" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="48" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="47" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="50" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="53" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="49" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="52" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="26" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="46" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="50" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="48" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="47" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="49" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="51" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="53" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="52" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="31" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="34" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="27" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="29" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="31" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="26" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="41" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1411,10 +1423,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F22"/>
+  <dimension ref="A1:F31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+      <selection activeCell="J10" sqref="J10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75" outlineLevelCol="5"/>
@@ -1442,7 +1454,7 @@
       <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2"/>
+      <c r="F1" s="3"/>
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="1">
@@ -1457,8 +1469,8 @@
       <c r="D2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="E2" s="3"/>
-      <c r="F2" s="2"/>
+      <c r="E2" s="4"/>
+      <c r="F2" s="3"/>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="1">
@@ -1473,8 +1485,8 @@
       <c r="D3" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="E3" s="4"/>
-      <c r="F3" s="2"/>
+      <c r="E3" s="5"/>
+      <c r="F3" s="3"/>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="1">
@@ -1489,8 +1501,8 @@
       <c r="D4" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E4" s="5"/>
-      <c r="F4" s="2"/>
+      <c r="E4" s="6"/>
+      <c r="F4" s="3"/>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="1">
@@ -1505,8 +1517,8 @@
       <c r="D5" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="E5" s="6"/>
-      <c r="F5" s="2"/>
+      <c r="E5" s="7"/>
+      <c r="F5" s="3"/>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="1">
@@ -1521,8 +1533,8 @@
       <c r="D6" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="E6" s="7"/>
-      <c r="F6" s="2"/>
+      <c r="E6" s="8"/>
+      <c r="F6" s="3"/>
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="1">
@@ -1537,8 +1549,8 @@
       <c r="D7" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E7" s="8"/>
-      <c r="F7" s="2"/>
+      <c r="E7" s="9"/>
+      <c r="F7" s="3"/>
     </row>
     <row r="8" spans="1:6">
       <c r="A8" s="1">
@@ -1553,8 +1565,8 @@
       <c r="D8" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="E8" s="9"/>
-      <c r="F8" s="2"/>
+      <c r="E8" s="10"/>
+      <c r="F8" s="3"/>
     </row>
     <row r="9" spans="1:6">
       <c r="A9" s="1">
@@ -1569,8 +1581,8 @@
       <c r="D9" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="E9" s="10"/>
-      <c r="F9" s="2"/>
+      <c r="E9" s="11"/>
+      <c r="F9" s="3"/>
     </row>
     <row r="10" spans="1:6">
       <c r="A10" s="1">
@@ -1585,8 +1597,8 @@
       <c r="D10" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="E10" s="11"/>
-      <c r="F10" s="2"/>
+      <c r="E10" s="12"/>
+      <c r="F10" s="3"/>
     </row>
     <row r="11" spans="1:6">
       <c r="A11" s="1">
@@ -1601,8 +1613,8 @@
       <c r="D11" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="E11" s="12"/>
-      <c r="F11" s="2"/>
+      <c r="E11" s="13"/>
+      <c r="F11" s="3"/>
     </row>
     <row r="12" spans="1:6">
       <c r="A12" s="1">
@@ -1617,8 +1629,8 @@
       <c r="D12" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="E12" s="13"/>
-      <c r="F12" s="2"/>
+      <c r="E12" s="14"/>
+      <c r="F12" s="3"/>
     </row>
     <row r="13" spans="1:6">
       <c r="A13" s="1">
@@ -1633,8 +1645,8 @@
       <c r="D13" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="E13" s="14"/>
-      <c r="F13" s="2"/>
+      <c r="E13" s="15"/>
+      <c r="F13" s="3"/>
     </row>
     <row r="14" spans="1:6">
       <c r="A14" s="1">
@@ -1649,8 +1661,8 @@
       <c r="D14" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="E14" s="15"/>
-      <c r="F14" s="2"/>
+      <c r="E14" s="16"/>
+      <c r="F14" s="3"/>
     </row>
     <row r="15" spans="1:6">
       <c r="A15" s="1">
@@ -1665,8 +1677,8 @@
       <c r="D15" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="E15" s="16"/>
-      <c r="F15" s="2"/>
+      <c r="E15" s="17"/>
+      <c r="F15" s="3"/>
     </row>
     <row r="16" spans="1:6">
       <c r="A16" s="1">
@@ -1681,8 +1693,8 @@
       <c r="D16" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="E16" s="17"/>
-      <c r="F16" s="2"/>
+      <c r="E16" s="18"/>
+      <c r="F16" s="3"/>
     </row>
     <row r="17" spans="1:6">
       <c r="A17" s="1">
@@ -1697,8 +1709,8 @@
       <c r="D17" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="E17" s="18"/>
-      <c r="F17" s="2"/>
+      <c r="E17" s="19"/>
+      <c r="F17" s="3"/>
     </row>
     <row r="18" spans="1:6">
       <c r="A18" s="1">
@@ -1713,8 +1725,8 @@
       <c r="D18" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="E18" s="19"/>
-      <c r="F18" s="2"/>
+      <c r="E18" s="20"/>
+      <c r="F18" s="3"/>
     </row>
     <row r="19" spans="1:6">
       <c r="A19" s="1">
@@ -1729,8 +1741,8 @@
       <c r="D19" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="E19" s="20"/>
-      <c r="F19" s="2"/>
+      <c r="E19" s="21"/>
+      <c r="F19" s="3"/>
     </row>
     <row r="20" spans="1:6">
       <c r="A20" s="1">
@@ -1745,8 +1757,8 @@
       <c r="D20" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="E20" s="21"/>
-      <c r="F20" s="2"/>
+      <c r="E20" s="22"/>
+      <c r="F20" s="3"/>
     </row>
     <row r="21" spans="1:6">
       <c r="A21" s="1">
@@ -1761,8 +1773,8 @@
       <c r="D21" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="E21" s="22"/>
-      <c r="F21" s="2"/>
+      <c r="E21" s="23"/>
+      <c r="F21" s="3"/>
     </row>
     <row r="22" spans="1:6">
       <c r="A22" s="1">
@@ -1777,8 +1789,16 @@
       <c r="D22" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="E22" s="23"/>
-      <c r="F22" s="2"/>
+      <c r="E22" s="24"/>
+      <c r="F22" s="3"/>
+    </row>
+    <row r="30" spans="2:2">
+      <c r="B30" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="31" spans="2:2">
+      <c r="B31" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
